--- a/DB/TeacherDB.xlsx
+++ b/DB/TeacherDB.xlsx
@@ -1,30 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SchoolSystem\DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0801C66A-9060-424A-ABF9-D1F681D95324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="Teacher Details " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Teacher1</t>
+  </si>
+  <si>
+    <t>[Course1, Course]</t>
+  </si>
+  <si>
+    <t>Teacher1@gmail</t>
+  </si>
+  <si>
+    <t>125street</t>
+  </si>
+  <si>
+    <t>Teacher2</t>
+  </si>
+  <si>
+    <t>Teacher2@gmail</t>
+  </si>
+  <si>
+    <t>Teacher3</t>
+  </si>
+  <si>
+    <t>Teacher3@gmail</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 3.0]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -85,7 +133,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +145,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +162,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +192,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +244,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +412,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DB/TeacherDB.xlsx
+++ b/DB/TeacherDB.xlsx
@@ -8,27 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SchoolSystem\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0801C66A-9060-424A-ABF9-D1F681D95324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F859F5-226F-4103-9752-A738C7A5860D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="168" windowWidth="12036" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Teacher Details " sheetId="1" r:id="rId1"/>
+    <sheet name="Teacher Details " sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Courses</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Grade-&gt;Course</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
   <si>
     <t>Email</t>
@@ -37,31 +43,31 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Teacher1</t>
-  </si>
-  <si>
-    <t>[Course1, Course]</t>
-  </si>
-  <si>
-    <t>Teacher1@gmail</t>
-  </si>
-  <si>
-    <t>125street</t>
-  </si>
-  <si>
-    <t>Teacher2</t>
-  </si>
-  <si>
-    <t>Teacher2@gmail</t>
-  </si>
-  <si>
-    <t>Teacher3</t>
-  </si>
-  <si>
-    <t>Teacher3@gmail</t>
-  </si>
-  <si>
-    <t>[1.0, 2.0, 3.0]</t>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>teacher1</t>
+  </si>
+  <si>
+    <t>1-&gt;English</t>
+  </si>
+  <si>
+    <t>Teacher1@</t>
+  </si>
+  <si>
+    <t>1 cairo street</t>
+  </si>
+  <si>
+    <t>teacher2</t>
+  </si>
+  <si>
+    <t>5-&gt;Math</t>
+  </si>
+  <si>
+    <t>teacher2@gmail.com</t>
+  </si>
+  <si>
+    <t>2 cairo street</t>
   </si>
 </sst>
 </file>
@@ -412,16 +418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,56 +443,92 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>11111111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>11111111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+      <c r="E4">
+        <v>2222222</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DB/TeacherDB.xlsx
+++ b/DB/TeacherDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SchoolSystem\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F859F5-226F-4103-9752-A738C7A5860D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F27DFAE-6832-4184-9D00-284EC0ACBEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="168" windowWidth="12036" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="168" windowWidth="12036" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Details " sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -52,7 +52,7 @@
     <t>1-&gt;English</t>
   </si>
   <si>
-    <t>Teacher1@</t>
+    <t>teacher1@gmail.com</t>
   </si>
   <si>
     <t>1 cairo street</t>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>2 cairo street</t>
+  </si>
+  <si>
+    <t>teacher10</t>
+  </si>
+  <si>
+    <t>6-&gt;Arabic</t>
+  </si>
+  <si>
+    <t>teacher10@</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cairo street</t>
+  </si>
+  <si>
+    <t>1-&gt;histroy</t>
+  </si>
+  <si>
+    <t>teacher5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">street </t>
+  </si>
+  <si>
+    <t>teacher5</t>
   </si>
 </sst>
 </file>
@@ -419,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,13 +485,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>11111111</v>
+        <v>1111111111</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -481,25 +505,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>11111111</v>
+        <v>2222222222</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -507,27 +531,53 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>2222222</v>
+        <v>1010101010</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2020202020</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DB/TeacherDB.xlsx
+++ b/DB/TeacherDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SchoolSystem\DB\"/>
     </mc:Choice>
@@ -98,6 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
